--- a/pickle/rolling_corr_excel_target_index_KOSPI_simulation_term_type_2_window_size_30.xlsx
+++ b/pickle/rolling_corr_excel_target_index_KOSPI_simulation_term_type_2_window_size_30.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>KOSPI_BBA-10Y Spread</t>
   </si>
@@ -35,24 +35,6 @@
     <t>KOSPI_CNY/USD</t>
   </si>
   <si>
-    <t>KOSPI_CPB 선진국 산업생산</t>
-  </si>
-  <si>
-    <t>KOSPI_CPB 선진국 수출</t>
-  </si>
-  <si>
-    <t>KOSPI_CPB 세계교역</t>
-  </si>
-  <si>
-    <t>KOSPI_CPB 세계생산</t>
-  </si>
-  <si>
-    <t>KOSPI_CPB 이머징 산업생산</t>
-  </si>
-  <si>
-    <t>KOSPI_CPB 이머징 수출</t>
-  </si>
-  <si>
     <t>KOSPI_CPI 주거비</t>
   </si>
   <si>
@@ -203,18 +185,9 @@
     <t>KOSPI_Nikkei225 P/E</t>
   </si>
   <si>
-    <t>KOSPI_OECD ASIA 5 경기선행지수</t>
-  </si>
-  <si>
-    <t>KOSPI_OECD G7 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_OECD 소비자물가</t>
   </si>
   <si>
-    <t>KOSPI_OECD+6NME 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_OITP 인덱스</t>
   </si>
   <si>
@@ -374,12 +347,6 @@
     <t>KOSPI_두바이유가</t>
   </si>
   <si>
-    <t>KOSPI_러시아 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>KOSPI_러시아 수출 YoY</t>
-  </si>
-  <si>
     <t>KOSPI_미국 10년 투기적포지션</t>
   </si>
   <si>
@@ -401,18 +368,12 @@
     <t>KOSPI_미국 NAHB 주택시장지수</t>
   </si>
   <si>
-    <t>KOSPI_미국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_미국 PD 일평균 국채거래량</t>
   </si>
   <si>
     <t>KOSPI_미국 REER</t>
   </si>
   <si>
-    <t>KOSPI_미국 S&amp;P 케이스쉴러 주택가격</t>
-  </si>
-  <si>
     <t>KOSPI_미국 개인근로소득 YoY</t>
   </si>
   <si>
@@ -515,9 +476,6 @@
     <t>KOSPI_발틱 해운임지수</t>
   </si>
   <si>
-    <t>KOSPI_브라질 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_브라질 REER</t>
   </si>
   <si>
@@ -557,12 +515,6 @@
     <t>KOSPI_유럽 M3 YoY</t>
   </si>
   <si>
-    <t>KOSPI_유럽 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>KOSPI_유럽 산업생산(건설 제외) YoY</t>
-  </si>
-  <si>
     <t>KOSPI_유럽 소매판매 YoY</t>
   </si>
   <si>
@@ -584,9 +536,6 @@
     <t>KOSPI_유로존 Core CPI</t>
   </si>
   <si>
-    <t>KOSPI_유로존 Credit Impulse</t>
-  </si>
-  <si>
     <t>KOSPI_유로존 ESI</t>
   </si>
   <si>
@@ -596,9 +545,6 @@
     <t>KOSPI_유로존 소비자신뢰지수</t>
   </si>
   <si>
-    <t>KOSPI_인도 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_인도 REER</t>
   </si>
   <si>
@@ -614,15 +560,9 @@
     <t>KOSPI_일본 ESI</t>
   </si>
   <si>
-    <t>KOSPI_일본 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_일본 REER</t>
   </si>
   <si>
-    <t>KOSPI_일본 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_일본 산업생산 YoY</t>
   </si>
   <si>
@@ -659,9 +599,6 @@
     <t>KOSPI_중국 M1 YoY</t>
   </si>
   <si>
-    <t>KOSPI_중국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_중국 PPI</t>
   </si>
   <si>
@@ -699,18 +636,6 @@
   </si>
   <si>
     <t>KOSPI_한국 Core CPI</t>
-  </si>
-  <si>
-    <t>KOSPI_한국 M1 YoY</t>
-  </si>
-  <si>
-    <t>KOSPI_한국 M2 YoY</t>
-  </si>
-  <si>
-    <t>KOSPI_한국 M3 YoY</t>
-  </si>
-  <si>
-    <t>KOSPI_한국 OECD 경기선행지수</t>
   </si>
   <si>
     <t>KOSPI_한국 PPI</t>
@@ -1212,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO4"/>
+  <dimension ref="A1:IP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,7 +1145,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:275">
+    <row r="1" spans="1:250">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,921 +1893,771 @@
       <c r="IP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:250">
+      <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:250">
+      <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:275">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="II2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:275">
-      <c r="A3" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2891,19 +2666,19 @@
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
         <v>3</v>
@@ -2915,94 +2690,94 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
         <v>2</v>
       </c>
-      <c r="R3" t="n">
-        <v>3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
       <c r="AA3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC3" t="n">
         <v>2</v>
       </c>
-      <c r="AC3" t="n">
-        <v>3</v>
-      </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
         <v>2</v>
       </c>
-      <c r="AF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
       <c r="AH3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK3" t="n">
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
@@ -3011,16 +2786,16 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AY3" t="n">
         <v>0</v>
@@ -3041,22 +2816,22 @@
         <v>0</v>
       </c>
       <c r="BE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI3" t="n">
         <v>0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK3" t="n">
         <v>2</v>
@@ -3065,13 +2840,13 @@
         <v>3</v>
       </c>
       <c r="BM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
         <v>0</v>
@@ -3083,28 +2858,28 @@
         <v>0</v>
       </c>
       <c r="BS3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU3" t="n">
         <v>2</v>
       </c>
-      <c r="BU3" t="n">
-        <v>3</v>
-      </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX3" t="n">
         <v>3</v>
       </c>
       <c r="BY3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BZ3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CA3" t="n">
         <v>0</v>
@@ -3113,91 +2888,91 @@
         <v>0</v>
       </c>
       <c r="CC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CE3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CF3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CT3" t="n">
         <v>2</v>
       </c>
-      <c r="CH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM3" t="n">
+      <c r="CU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB3" t="n">
         <v>2</v>
       </c>
-      <c r="CN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>1</v>
-      </c>
       <c r="DC3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DD3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DE3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DF3" t="n">
         <v>3</v>
@@ -3209,97 +2984,97 @@
         <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DK3" t="n">
         <v>2</v>
       </c>
       <c r="DL3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DO3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DP3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA3" t="n">
         <v>2</v>
       </c>
-      <c r="DT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>0</v>
-      </c>
       <c r="EB3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="ED3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EG3" t="n">
         <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EI3" t="n">
         <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EK3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EN3" t="n">
         <v>3</v>
@@ -3308,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="ER3" t="n">
         <v>0</v>
@@ -3323,13 +3098,13 @@
         <v>0</v>
       </c>
       <c r="EU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" t="n">
         <v>2</v>
       </c>
-      <c r="EV3" t="n">
-        <v>3</v>
-      </c>
       <c r="EW3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EX3" t="n">
         <v>2</v>
@@ -3338,10 +3113,10 @@
         <v>3</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="FA3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="FB3" t="n">
         <v>0</v>
@@ -3371,34 +3146,34 @@
         <v>0</v>
       </c>
       <c r="FK3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO3" t="n">
         <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR3" t="n">
         <v>2</v>
       </c>
-      <c r="FR3" t="n">
-        <v>1</v>
-      </c>
       <c r="FS3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FT3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FU3" t="n">
         <v>0</v>
@@ -3407,214 +3182,214 @@
         <v>3</v>
       </c>
       <c r="FW3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GC3" t="n">
         <v>2</v>
       </c>
-      <c r="FY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC3" t="n">
-        <v>0</v>
-      </c>
       <c r="GD3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GE3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GF3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GG3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GH3" t="n">
         <v>1</v>
       </c>
       <c r="GI3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GJ3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GK3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GL3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GM3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GT3" t="n">
         <v>2</v>
       </c>
-      <c r="GO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>0</v>
-      </c>
       <c r="GU3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GV3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GW3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GY3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="HA3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HB3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HC3" t="n">
         <v>3</v>
       </c>
       <c r="HD3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE3" t="n">
         <v>2</v>
       </c>
-      <c r="HF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HO3" t="n">
+      <c r="IF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="II3" t="n">
         <v>2</v>
       </c>
-      <c r="HP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="II3" t="n">
-        <v>3</v>
-      </c>
       <c r="IJ3" t="n">
         <v>3</v>
       </c>
       <c r="IK3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="IL3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="IM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="IN3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="IO3" t="n">
         <v>0</v>
@@ -3622,907 +3397,757 @@
       <c r="IP3" t="n">
         <v>0</v>
       </c>
-      <c r="IQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:275">
+    <row r="4" spans="1:250">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.8914556163543806</v>
+        <v>-0.8752994970165978</v>
       </c>
       <c r="C4" t="n">
-        <v>0.879688716003112</v>
+        <v>0.8912076566027987</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8959520320400898</v>
+        <v>0.8643545234989696</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8091216031313564</v>
+        <v>0.7352199292674917</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6694089824699405</v>
+        <v>0.5867545849186655</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4857007095877401</v>
+        <v>-0.423549452413821</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9529678817905922</v>
+        <v>0.8795460081204093</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9279207191664572</v>
+        <v>0.8712425204649397</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9216005200458126</v>
+        <v>0.4324614683969422</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9438753330613592</v>
+        <v>0.4285938835135792</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9165231610022664</v>
+        <v>-0.6438845936851999</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8658205301042257</v>
+        <v>0.9286205026523853</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9139745707995061</v>
+        <v>-0.8307811290045294</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9102054147253434</v>
+        <v>0.9334741452503563</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3688732855678857</v>
+        <v>0.9243260897376931</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4728487257666411</v>
+        <v>0.8738474930624557</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.843010431307389</v>
+        <v>0.4690806780537918</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9381024890729929</v>
+        <v>0.6313414755868718</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.8214503729276061</v>
+        <v>-0.4380756673308927</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8878536790889734</v>
+        <v>0.8865550168013667</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8140306645638707</v>
+        <v>0.5552774282093422</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8629456471887661</v>
+        <v>0.852530743587363</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4989190112041076</v>
+        <v>0.7699227534097249</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.56086939254956</v>
+        <v>-0.2882853161093875</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.6142775315767582</v>
+        <v>0.9056380196544702</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8962728375584751</v>
+        <v>0.6613732471584478</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6543748746762007</v>
+        <v>0.8933080458223168</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.8708468595568911</v>
+        <v>0.6369190828123092</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.7937156854523011</v>
+        <v>0.9177816508974171</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.0573918397307652</v>
+        <v>0.7230832374379059</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.8996967330091129</v>
+        <v>0.7024569532361434</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.6378689903914818</v>
+        <v>0.6194827129436431</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.8933169130628302</v>
+        <v>0.1891089875449127</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.6033840296315516</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.9348786025653568</v>
+        <v>-0.1749038123364303</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.714738749454829</v>
+        <v>0.9759327810608505</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.5145376117026027</v>
+        <v>-0.202933446234827</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.7270967834881541</v>
+        <v>-0.8013125530548398</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.1634057168579429</v>
+        <v>-0.7218187660535379</v>
       </c>
       <c r="AO4" t="n">
-        <v>1</v>
+        <v>0.9060901579331576</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.3138604964802431</v>
+        <v>0.2464145065869699</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.9794441533982071</v>
+        <v>-0.8168268440168457</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.2835847740014116</v>
+        <v>-0.6714844700140974</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.446822839010307</v>
+        <v>0.9688118893030274</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.7179390213643386</v>
+        <v>0.9458698891924994</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.9259634061750401</v>
+        <v>0.9324180313435665</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.2626065202409306</v>
+        <v>0.9508483812281558</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.8481339612613219</v>
+        <v>0.9619501111763703</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.6669387466183355</v>
+        <v>0.9626705335685406</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.9780193380168578</v>
+        <v>0.9388550389310947</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.9700665785698181</v>
+        <v>0.923211666794005</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.9638408096384925</v>
+        <v>0.9739174836007332</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.9592171624745391</v>
+        <v>0.9074885722535326</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.9639677598702724</v>
+        <v>0.8052754042335639</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.9706100756964975</v>
+        <v>0.7644465381403421</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.9692833146030082</v>
+        <v>0.2151018798763173</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.959398674862507</v>
+        <v>0.9023001536883228</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.9700057867437814</v>
+        <v>-0.31790716691235</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.8697044342316965</v>
+        <v>0.7654179173268719</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.8965646915816402</v>
+        <v>-0.2769553532224027</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.6957980852299117</v>
+        <v>0.8335387965107076</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.2672850510696682</v>
+        <v>0.8267206736335632</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.2844671015009588</v>
+        <v>0.443464683240537</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.9393463091616795</v>
+        <v>-0.6763686143544745</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.9089546275493536</v>
+        <v>0.9088895004947251</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.930643986488874</v>
+        <v>0.7533900745370323</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.301174146969565</v>
+        <v>0.9029526604773745</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.7911120257518586</v>
+        <v>0.5444821109785699</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0.1245226644742509</v>
+        <v>0.8912936049495854</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.8391074437048962</v>
+        <v>0.8555559152976026</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.8603649684757912</v>
+        <v>0.6446614339520856</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.5372798562345149</v>
+        <v>0.9382973507589062</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.4438683747109548</v>
+        <v>0.9030351068937038</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.9545665317016054</v>
+        <v>0.8891759522354671</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.9472132921487391</v>
+        <v>-0.8252809278217513</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.9407463660098945</v>
+        <v>-0.4911582658700616</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.7370960620290591</v>
+        <v>0.7339882043142207</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.9610052685115509</v>
+        <v>0.9287975084812802</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.8847816451377307</v>
+        <v>0.8372102915904028</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.6857559633238333</v>
+        <v>0.8308421092017511</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.9187611743033631</v>
+        <v>0.4090592722967051</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.7958246211590404</v>
+        <v>0.6889139171841097</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.8058064791920713</v>
+        <v>0.8080539878985025</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.8817813664257298</v>
+        <v>-0.5271724564254092</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.5212579297588654</v>
+        <v>0.6641538230293154</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.4734646208199934</v>
+        <v>0.5297340253291736</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.8688014368912151</v>
+        <v>-0.3078024391312382</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.8802938319434777</v>
+        <v>0.5514596204449855</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.6956354442885806</v>
+        <v>-0.1662603251055645</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.3941353585771249</v>
+        <v>0.623421403329588</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.7154700739365839</v>
+        <v>0.8860429387785016</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.810839383176381</v>
+        <v>-0.5133456336642577</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.6556573092187279</v>
+        <v>0.862483386025937</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.7328791407387821</v>
+        <v>0.8746865389654177</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.6178840759395006</v>
+        <v>-0.3815455763632848</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0.09522802960497515</v>
+        <v>0.9112659578481229</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.5185585033046136</v>
+        <v>0.4340930544542089</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.1111123390108858</v>
+        <v>0.8612596237820976</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.6304853548825099</v>
+        <v>0.8825116603385053</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.9371092838687423</v>
+        <v>0.8575057123185396</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.3067419631614225</v>
+        <v>0.7907298286082695</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.8292286993941625</v>
+        <v>-0.677057829330927</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.9427971834771044</v>
+        <v>0.7050406947526481</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.3637843073891117</v>
+        <v>0.7806107145547954</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.9120464208359612</v>
+        <v>0.9464714077923237</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.5087972674500284</v>
+        <v>-0.4919446395170811</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.8806265444970922</v>
+        <v>0.6255002036150452</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.8864797332254341</v>
+        <v>0.7278244864290533</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.874270711920801</v>
+        <v>0.1991091180884815</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.9110088386184286</v>
+        <v>0.7435288627550866</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.6920282436065249</v>
+        <v>-0.1073154414567655</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.747019721940784</v>
+        <v>0.766690109481446</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.558634040780259</v>
+        <v>-0.8272120269961355</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.9392513216735733</v>
+        <v>0.3617093132074997</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.6472312592047691</v>
+        <v>-0.2480774749696081</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.7115260326829171</v>
+        <v>-0.8596783772892657</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.7682599172821256</v>
+        <v>0.7877679575384445</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.2281040064379974</v>
+        <v>0.3119134042423463</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.8065254544503099</v>
+        <v>-0.513779410779969</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.835673968976709</v>
+        <v>0.8860429387785016</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.8498399371171012</v>
+        <v>0.8697389550455696</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.2540070419875813</v>
+        <v>0.9325210158835747</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.7778022111750592</v>
+        <v>0.7120155367255855</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.8268104991116464</v>
+        <v>0.7940682256379766</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.3567682519987387</v>
+        <v>0.5112296222333111</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.2823309805305566</v>
+        <v>0.8932323099057579</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.8081850507208755</v>
+        <v>-0.9339677774301635</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.7523091659839086</v>
+        <v>0.8993013678859714</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.8728995138962268</v>
+        <v>0.7665826868522814</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.3167486939896641</v>
+        <v>0.9462577444004949</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.5851164825429764</v>
+        <v>0.8697525970510204</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.906486079953</v>
+        <v>0.6000310111025918</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.9371092838687423</v>
+        <v>-0.7085895223212183</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.9409382071526935</v>
+        <v>0.1008302345353333</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.9072350703350641</v>
+        <v>-0.1322239221849456</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.6553543103677519</v>
+        <v>0.7902232851190223</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.8870172836844606</v>
+        <v>0.9132585031791405</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.339565073764947</v>
+        <v>0.5482416725078564</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.9251607322342399</v>
+        <v>0.8148056415123442</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.9307990724907486</v>
+        <v>0.923917181878067</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.9626123947899442</v>
+        <v>0.853270777115833</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.7685134796692067</v>
+        <v>0.8372952762571912</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.9663169931414781</v>
+        <v>0.8438061285436739</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.8981386999289876</v>
+        <v>-0.8778051346847213</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.6242386025813279</v>
+        <v>0.860028572839542</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.7200788343767373</v>
+        <v>0.1918113409240501</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.436037275571612</v>
+        <v>0.7938233107407796</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.1983243730041356</v>
+        <v>-0.8691889570349622</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.8545355719767082</v>
+        <v>-0.7796825288332776</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.9457707219277326</v>
+        <v>-0.8682409762482713</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0.2261247144166049</v>
+        <v>0.7341628841660801</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.8442901897529052</v>
+        <v>0.7486807855719181</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.937972753889789</v>
+        <v>0.8150997014890615</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.8757062641479243</v>
+        <v>0.6060493147665472</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.8227462806629673</v>
+        <v>0.698707626781271</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.8845754409183162</v>
+        <v>0.5558094619495855</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.9055659962603753</v>
+        <v>-0.6751679325348841</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.9501089227333712</v>
+        <v>0.4285938835135792</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.2286586726201027</v>
+        <v>0.8486208010947949</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.7408732360657722</v>
+        <v>0.6753742733069755</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.8626852127238449</v>
+        <v>0.4795632537608989</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.8603304369377717</v>
+        <v>-0.4977241140563559</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.8839802101749665</v>
+        <v>0.865317056437033</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.759491567015804</v>
+        <v>-0.2333534320999968</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.7331079334753557</v>
+        <v>-0.117018219176109</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.8063354353266684</v>
+        <v>-0.4788612869409234</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.9100116261328627</v>
+        <v>0.3194154777145016</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.6697552739733174</v>
+        <v>0.9487291596503898</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.5480217405498117</v>
+        <v>0.8534183630679179</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.3603068580677887</v>
+        <v>-0.557724748741567</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0.4153494434992613</v>
+        <v>-0.8262527441738428</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.4728487257666411</v>
+        <v>0.8009531344023976</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.8957027453834721</v>
+        <v>0.518306501342668</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.412699211708194</v>
+        <v>0.413970618921681</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.6163795418635797</v>
+        <v>0.7466682912589476</v>
       </c>
       <c r="FU4" t="n">
-        <v>-0.25542400850741</v>
+        <v>0.9487291596503898</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.8892114562875196</v>
+        <v>0.8228470916558409</v>
       </c>
       <c r="FW4" t="n">
-        <v>-0.3508367373933161</v>
+        <v>0.7728170553021884</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.1313767483413501</v>
+        <v>0.7737971703218139</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0.391415944114912</v>
+        <v>-0.7249674557509437</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.7849307902546694</v>
+        <v>-0.2108739183961685</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.5088085507193224</v>
+        <v>-0.7081448371021751</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.2554472569075112</v>
+        <v>0.7775121548041474</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.9331554286736498</v>
+        <v>0.777338239282174</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.7307466905248412</v>
+        <v>0.48875294491997</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0.346782892843339</v>
+        <v>0.9241045334185612</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0.7274814998448397</v>
+        <v>0.8811392559244587</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.892728994162207</v>
+        <v>0.4292680860843289</v>
       </c>
       <c r="GH4" t="n">
-        <v>0.4640043350893903</v>
+        <v>0.8850642209727538</v>
       </c>
       <c r="GI4" t="n">
-        <v>-0.8871092186868684</v>
+        <v>-0.738418349835339</v>
       </c>
       <c r="GJ4" t="n">
-        <v>0.5980645200065999</v>
+        <v>0</v>
       </c>
       <c r="GK4" t="n">
-        <v>0.7591239220334906</v>
+        <v>-0.2774251610546418</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.9331554286736498</v>
+        <v>0.3788116017714935</v>
       </c>
       <c r="GM4" t="n">
-        <v>0.3806306270249232</v>
+        <v>0.9034441665300973</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.9027566774554364</v>
+        <v>0.8972340825647375</v>
       </c>
       <c r="GO4" t="n">
-        <v>0.1918652848848417</v>
+        <v>-0.5714535923207383</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.7256450272822601</v>
+        <v>-0.6527928039263364</v>
       </c>
       <c r="GQ4" t="n">
-        <v>-0.8036763570638776</v>
+        <v>2.179057684813767e-16</v>
       </c>
       <c r="GR4" t="n">
-        <v>0.06016295707034805</v>
+        <v>2.179057684813767e-16</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.7540090540182695</v>
+        <v>0.7987638376135212</v>
       </c>
       <c r="GT4" t="n">
-        <v>-0.3665533186173076</v>
+        <v>0.6840766795131087</v>
       </c>
       <c r="GU4" t="n">
-        <v>0.8000850917219001</v>
+        <v>0</v>
       </c>
       <c r="GV4" t="n">
-        <v>0.8395061967555266</v>
+        <v>0.2689397927978576</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.7374555216347134</v>
+        <v>0.2450574678210836</v>
       </c>
       <c r="GX4" t="n">
-        <v>0.5148764634818845</v>
+        <v>0.5183316678725863</v>
       </c>
       <c r="GY4" t="n">
-        <v>0.9289746160754271</v>
+        <v>0.7377996907541799</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.9060556423728183</v>
+        <v>-0.5149072478001964</v>
       </c>
       <c r="HA4" t="n">
-        <v>0.1997748423818158</v>
+        <v>0.8749274686349087</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.8641162290335668</v>
+        <v>0.630838601415824</v>
       </c>
       <c r="HC4" t="n">
-        <v>-0.8094314222662781</v>
+        <v>-0.4063420564361644</v>
       </c>
       <c r="HD4" t="n">
-        <v>-0.2508568061719449</v>
+        <v>-0.6914717318409832</v>
       </c>
       <c r="HE4" t="n">
-        <v>-0.3243831829300209</v>
+        <v>0.569205329625631</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.4912120658002344</v>
+        <v>-0.2930740979460864</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.8801563511259765</v>
+        <v>0.6316498866318986</v>
       </c>
       <c r="HH4" t="n">
-        <v>-0.7845477096598643</v>
+        <v>0.9172923738587941</v>
       </c>
       <c r="HI4" t="n">
-        <v>0.913361497838475</v>
+        <v>-0.7759882400922322</v>
       </c>
       <c r="HJ4" t="n">
-        <v>-0.7312416058006584</v>
+        <v>0.3914474455454935</v>
       </c>
       <c r="HK4" t="n">
-        <v>-0.6913117095787189</v>
+        <v>0.2768491288700284</v>
       </c>
       <c r="HL4" t="n">
-        <v>-0.2508568061719448</v>
+        <v>0.8553940186179594</v>
       </c>
       <c r="HM4" t="n">
-        <v>-0.2508568061719448</v>
+        <v>0.7413949844119648</v>
       </c>
       <c r="HN4" t="n">
-        <v>0.8265007695396934</v>
+        <v>-0.1447873175499468</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.7584309055146539</v>
+        <v>-0.168424321149504</v>
       </c>
       <c r="HP4" t="n">
-        <v>-0.2508568061719449</v>
+        <v>-0.416581389686217</v>
       </c>
       <c r="HQ4" t="n">
-        <v>0.2112886965149139</v>
+        <v>-0.1030526388829707</v>
       </c>
       <c r="HR4" t="n">
-        <v>0.2582008255982335</v>
+        <v>-0.7906742814117454</v>
       </c>
       <c r="HS4" t="n">
-        <v>0.5820862626455221</v>
+        <v>0.8770969105766865</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.850128434173324</v>
+        <v>-0.4090059633177617</v>
       </c>
       <c r="HU4" t="n">
-        <v>-0.5636792793548272</v>
+        <v>0.7975140154368937</v>
       </c>
       <c r="HV4" t="n">
-        <v>-0.8670773720588606</v>
+        <v>0.6937626807261006</v>
       </c>
       <c r="HW4" t="n">
-        <v>-0.867468122870141</v>
+        <v>0.8508036781462348</v>
       </c>
       <c r="HX4" t="n">
-        <v>-0.8676418475273369</v>
+        <v>0.824863053203672</v>
       </c>
       <c r="HY4" t="n">
-        <v>0.2809063104760834</v>
+        <v>0.7101664814014809</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.9112294971532585</v>
+        <v>-0.3508559558966811</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.6245994693855939</v>
+        <v>-0.5776964989239246</v>
       </c>
       <c r="IB4" t="n">
-        <v>-0.4672178742538809</v>
+        <v>-0.2103461014519691</v>
       </c>
       <c r="IC4" t="n">
-        <v>-0.6307434162972321</v>
+        <v>-0.3206334940720754</v>
       </c>
       <c r="ID4" t="n">
-        <v>0.5747129351752857</v>
+        <v>-0.8066004241863306</v>
       </c>
       <c r="IE4" t="n">
-        <v>-0.04021394876075145</v>
+        <v>0.8485043228230768</v>
       </c>
       <c r="IF4" t="n">
-        <v>0.5650253908580249</v>
+        <v>0.1306975311668247</v>
       </c>
       <c r="IG4" t="n">
-        <v>0.9454983346610617</v>
+        <v>-0.8690611975075485</v>
       </c>
       <c r="IH4" t="n">
-        <v>-0.7677552617060927</v>
+        <v>-0.605774877304854</v>
       </c>
       <c r="II4" t="n">
-        <v>0.5120163598802485</v>
+        <v>0.8485043228230768</v>
       </c>
       <c r="IJ4" t="n">
-        <v>-0.4993750690677864</v>
+        <v>0.7757311316291293</v>
       </c>
       <c r="IK4" t="n">
-        <v>0.2889006067942499</v>
+        <v>-0.3489451638513199</v>
       </c>
       <c r="IL4" t="n">
-        <v>0.6985714529095398</v>
+        <v>0.3171423720423446</v>
       </c>
       <c r="IM4" t="n">
-        <v>0.1683755148860109</v>
+        <v>-0.3231018129598706</v>
       </c>
       <c r="IN4" t="n">
-        <v>-0.09659031452441426</v>
+        <v>-0.6595628897486487</v>
       </c>
       <c r="IO4" t="n">
-        <v>-0.3476377800778017</v>
+        <v>0.9270999682328507</v>
       </c>
       <c r="IP4" t="n">
-        <v>-0.1388256985923743</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>-0.8040891154643158</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>0.9031580065329385</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>-0.4801269867184608</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>0.6889187259686897</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>0.5775858169723211</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>0.8638466946569976</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>0.8612481982312863</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>0.8282813289718287</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>-0.2718036605267987</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>-0.5067736375481536</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>-0.2000221761274995</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>-0.3935311370328732</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>-0.79997566325213</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>0.8332803357808333</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>0.2179471490147583</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>-0.9321691846349116</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>-0.5437625091575459</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>0.8332803357808333</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>0.8398691443024996</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>-0.4696830246483485</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>0.3093249595719308</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>0.2787120830214223</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>-0.6216154908197377</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>0.9013046951581473</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>0.8135968043026149</v>
+        <v>0.8355701001714738</v>
       </c>
     </row>
   </sheetData>
